--- a/doc/03.詳細設計/URL一覧.xlsx
+++ b/doc/03.詳細設計/URL一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49577C1E-7EA8-4BFE-BEC7-D7F682CDCB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC5813-0BE1-4A86-98EB-FE6965CC3650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
   </bookViews>
   <sheets>
     <sheet name="URL一覧" sheetId="2" r:id="rId1"/>
@@ -298,10 +298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/follower{user_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>followerDestroy()</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -327,10 +323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/favorite{tweet_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FavoriteController</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -521,6 +513,14 @@
   </si>
   <si>
     <t>room.blade.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/follower{tweet}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/favorite{tweet}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,9 +596,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE410A23-8E44-1C49-9AC2-67B421A8557F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -991,7 +988,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1019,7 +1016,7 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1045,7 +1042,7 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1071,7 +1068,7 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1092,10 +1089,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>23</v>
@@ -1114,10 +1111,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1125,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
@@ -1136,10 +1133,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1147,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>23</v>
@@ -1163,7 +1160,7 @@
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1176,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1187,7 +1184,7 @@
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1200,7 +1197,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1211,7 +1208,7 @@
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1224,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1235,7 +1232,7 @@
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1259,7 +1256,7 @@
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1281,9 +1278,9 @@
         <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1305,166 +1302,166 @@
         <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H22" s="2"/>
     </row>

--- a/doc/03.詳細設計/URL一覧.xlsx
+++ b/doc/03.詳細設計/URL一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC5813-0BE1-4A86-98EB-FE6965CC3650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C104FB-487A-43B7-92B1-B792CF0899D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FollowerController</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>つぶやき削除</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
@@ -276,10 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>followerGet()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tweetDestroy()</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -298,10 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>followerDestroy()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォロー解除処理</t>
     <rPh sb="4" eb="6">
       <t>カイジョ</t>
@@ -327,14 +315,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>favoriteGet()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>favoriteDestroy()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>いいね処理</t>
     <rPh sb="3" eb="5">
       <t>ショリ</t>
@@ -516,11 +496,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/follower{tweet}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/favorite{tweet}</t>
+    <t>UserController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tweet/{user}/follow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tweet/{user}/unfollow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tweet/{tweet}/favorite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tweet/{tweet}/unfavorite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>follow()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unfollow()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unfavorite()</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -914,8 +922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE410A23-8E44-1C49-9AC2-67B421A8557F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -988,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1089,7 +1098,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1103,7 +1112,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>23</v>
@@ -1111,7 +1120,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1125,7 +1134,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
@@ -1133,7 +1142,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1147,7 +1156,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>23</v>
@@ -1173,7 +1182,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1197,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1221,7 +1230,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1245,13 +1254,13 @@
         <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -1263,13 +1272,13 @@
         <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1278,190 +1287,190 @@
         <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H22" s="2"/>
     </row>

--- a/doc/03.詳細設計/URL一覧.xlsx
+++ b/doc/03.詳細設計/URL一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C104FB-487A-43B7-92B1-B792CF0899D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8990F1B-934D-404D-B4BB-EB4FD2423436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
   </bookViews>
@@ -924,7 +924,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>

--- a/doc/03.詳細設計/URL一覧.xlsx
+++ b/doc/03.詳細設計/URL一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8990F1B-934D-404D-B4BB-EB4FD2423436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB56FA92-B507-4405-AAD9-9C1BE051F2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
+    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
   </bookViews>
   <sheets>
     <sheet name="URL一覧" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/tweet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TweetController</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -221,19 +217,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/tweet/{user_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/tweet/{followed_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>つぶやく</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/tweet/store</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -529,6 +513,26 @@
   </si>
   <si>
     <t>unfavorite()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/allTweets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/myTweets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/followerTweets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tweetPost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tweet/{tweet}/destroy</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -924,7 +928,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -997,7 +1001,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1098,7 +1102,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1112,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>23</v>
@@ -1120,7 +1124,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1134,7 +1138,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
@@ -1142,7 +1146,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1156,7 +1160,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>23</v>
@@ -1167,310 +1171,310 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H22" s="2"/>
     </row>

--- a/doc/03.詳細設計/URL一覧.xlsx
+++ b/doc/03.詳細設計/URL一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB56FA92-B507-4405-AAD9-9C1BE051F2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49271A18-F020-4E16-B5C0-6DE52B703AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
   </bookViews>
   <sheets>
     <sheet name="URL一覧" sheetId="2" r:id="rId1"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>allTalkRoomGet()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トークルーム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -456,10 +452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/room</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/room/{id}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -533,6 +525,14 @@
   </si>
   <si>
     <t>/tweet/{tweet}/destroy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/talkRoom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>talkRoomIndex()</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -927,8 +927,8 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -1001,7 +1001,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1116,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>23</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1138,7 +1138,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1160,7 +1160,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>23</v>
@@ -1171,7 +1171,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -1186,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1195,7 +1195,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
@@ -1210,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1219,7 +1219,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -1234,7 +1234,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1243,7 +1243,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -1267,7 +1267,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -1291,16 +1291,16 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
@@ -1315,16 +1315,16 @@
         <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
@@ -1339,7 +1339,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>47</v>
@@ -1348,7 +1348,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
@@ -1363,7 +1363,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>47</v>
@@ -1372,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
@@ -1387,94 +1387,94 @@
         <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="2"/>
     </row>

--- a/doc/03.詳細設計/URL一覧.xlsx
+++ b/doc/03.詳細設計/URL一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49271A18-F020-4E16-B5C0-6DE52B703AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E7C42A-9548-42D8-A187-0B03D824C11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -335,10 +335,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>talkRoomIn()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>messagePost()</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -452,18 +448,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/room/{id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/message/{room_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/message/{room_id}/{user_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RoomController</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -533,6 +517,14 @@
   </si>
   <si>
     <t>talkRoomIndex()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/talkRoom/{room}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>talkRoomShow()</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -927,8 +919,8 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -1001,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1102,7 +1094,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1116,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>23</v>
@@ -1124,7 +1116,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1138,7 +1130,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
@@ -1146,7 +1138,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1160,7 +1152,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>23</v>
@@ -1171,7 +1163,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -1186,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1195,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
@@ -1210,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1219,7 +1211,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -1234,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1243,7 +1235,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -1267,7 +1259,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -1291,16 +1283,16 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
@@ -1315,16 +1307,16 @@
         <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
@@ -1339,7 +1331,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>47</v>
@@ -1348,7 +1340,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
@@ -1363,7 +1355,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>47</v>
@@ -1372,7 +1364,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
@@ -1387,22 +1379,22 @@
         <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1411,22 +1403,22 @@
         <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1435,7 +1427,7 @@
         <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>53</v>
@@ -1444,22 +1436,22 @@
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>53</v>
@@ -1468,13 +1460,13 @@
         <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" s="2"/>
     </row>

--- a/doc/03.詳細設計/URL一覧.xlsx
+++ b/doc/03.詳細設計/URL一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E7C42A-9548-42D8-A187-0B03D824C11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4168E40-9182-49ED-91E6-BFE51BFC8B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -452,10 +452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>room.blade.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UserController</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,6 +521,36 @@
   </si>
   <si>
     <t>talkRoomShow()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォロワー一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/followerList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FollowerController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allFollowerGet()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォロワー一覧を表示</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show.blade.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -916,11 +942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE410A23-8E44-1C49-9AC2-67B421A8557F}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -1163,7 +1189,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -1187,7 +1213,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
@@ -1211,7 +1237,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -1235,7 +1261,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -1259,7 +1285,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -1283,16 +1309,16 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
@@ -1307,16 +1333,16 @@
         <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
@@ -1331,7 +1357,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>47</v>
@@ -1340,7 +1366,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
@@ -1355,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>47</v>
@@ -1364,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
@@ -1379,7 +1405,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>68</v>
@@ -1388,7 +1414,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
@@ -1403,7 +1429,7 @@
         <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>68</v>
@@ -1412,10 +1438,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>65</v>
@@ -1427,7 +1453,7 @@
         <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>53</v>
@@ -1439,7 +1465,7 @@
         <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>66</v>
@@ -1451,7 +1477,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>53</v>
@@ -1463,12 +1489,36 @@
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/03.詳細設計/URL一覧.xlsx
+++ b/doc/03.詳細設計/URL一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4168E40-9182-49ED-91E6-BFE51BFC8B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67030096-E089-40D6-9B8B-60E1E6E9816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
+    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{D07C9286-DB9C-445E-BA63-8AFC1DD1A5E2}"/>
   </bookViews>
   <sheets>
     <sheet name="URL一覧" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -551,6 +551,62 @@
   </si>
   <si>
     <t>show.blade.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録完了</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/register_check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/register_done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報修正確認</t>
+    <rPh sb="4" eb="8">
+      <t>ジョウホウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報修正完了</t>
+    <rPh sb="4" eb="8">
+      <t>ジョウホウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/profile_check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/profile_done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit.blade.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileController</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -945,8 +1001,8 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -1068,10 +1124,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1094,10 +1150,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1122,8 +1178,12 @@
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1191,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>61</v>
@@ -1142,10 +1202,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1164,10 +1228,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
